--- a/GameAwards2020/Assets/GameMain/DataTables/Excel/UISound.xlsx
+++ b/GameAwards2020/Assets/GameMain/DataTables/Excel/UISound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameAwards2020\GameAwards2020\Assets\GameMain\DataTables\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAACC27-AB6D-4C02-B0AE-F93DF5A7DC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8764AADE-66C7-48CD-9B9A-E1EAD94FF6DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>#</t>
   </si>
@@ -90,12 +90,16 @@
     <t>Volume(0~1)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +130,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +168,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -536,6 +550,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
